--- a/attendance-files/SCM/SCM-H Attendance Sheet.xlsx
+++ b/attendance-files/SCM/SCM-H Attendance Sheet.xlsx
@@ -1297,7 +1297,8 @@
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="12.88"/>
     <col customWidth="1" hidden="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
+    <col customWidth="1" min="7" max="7" width="10.13"/>
+    <col customWidth="1" min="8" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>

--- a/attendance-files/SCM/SCM-H Attendance Sheet.xlsx
+++ b/attendance-files/SCM/SCM-H Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1305,7 +1305,8 @@
     <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="12.88"/>
-    <col customWidth="1" min="5" max="6" width="12.75"/>
+    <col customWidth="1" min="5" max="5" width="12.75"/>
+    <col customWidth="1" min="6" max="6" width="11.0"/>
     <col customWidth="1" min="7" max="7" width="10.13"/>
     <col customWidth="1" min="8" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
@@ -1702,7 +1703,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>20</v>
@@ -1731,8 +1732,12 @@
       <c r="O7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="P7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
       <c r="T7" s="40"/>
@@ -1764,7 +1769,7 @@
       </c>
       <c r="F8" s="44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1793,8 +1798,12 @@
       <c r="O8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
+      <c r="P8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
@@ -1826,7 +1835,7 @@
       </c>
       <c r="F9" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1855,8 +1864,12 @@
       <c r="O9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
+      <c r="P9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R9" s="46"/>
       <c r="S9" s="46"/>
       <c r="T9" s="46"/>
@@ -1888,7 +1901,7 @@
       </c>
       <c r="F10" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
@@ -1917,8 +1930,12 @@
       <c r="O10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
+      <c r="P10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R10" s="46"/>
       <c r="S10" s="46"/>
       <c r="T10" s="46"/>
@@ -1950,7 +1967,7 @@
       </c>
       <c r="F11" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1979,8 +1996,12 @@
       <c r="O11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
+      <c r="P11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R11" s="46"/>
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
@@ -2008,7 +2029,7 @@
       </c>
       <c r="E12" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="44">
         <f t="shared" si="2"/>
@@ -2041,8 +2062,12 @@
       <c r="O12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
+      <c r="P12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
       <c r="T12" s="46"/>
@@ -2074,7 +2099,7 @@
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="49" t="s">
         <v>20</v>
@@ -2103,8 +2128,12 @@
       <c r="O13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
+      <c r="P13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
@@ -2136,7 +2165,7 @@
       </c>
       <c r="F14" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>20</v>
@@ -2165,8 +2194,12 @@
       <c r="O14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
+      <c r="P14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R14" s="46"/>
       <c r="S14" s="46"/>
       <c r="T14" s="46"/>
@@ -2198,7 +2231,7 @@
       </c>
       <c r="F15" s="44">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" s="48" t="s">
         <v>21</v>
@@ -2227,8 +2260,12 @@
       <c r="O15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
+      <c r="P15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
@@ -2260,7 +2297,7 @@
       </c>
       <c r="F16" s="44">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>21</v>
@@ -2289,8 +2326,12 @@
       <c r="O16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
+      <c r="P16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
@@ -2322,7 +2363,7 @@
       </c>
       <c r="F17" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" s="49" t="s">
         <v>20</v>
@@ -2351,8 +2392,12 @@
       <c r="O17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
+      <c r="P17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
       <c r="T17" s="46"/>
@@ -2380,11 +2425,11 @@
       </c>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>21</v>
@@ -2413,8 +2458,12 @@
       <c r="O18" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
+      <c r="P18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
       <c r="T18" s="46"/>
@@ -2442,11 +2491,11 @@
       </c>
       <c r="E19" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>20</v>
@@ -2475,8 +2524,12 @@
       <c r="O19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
+      <c r="P19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R19" s="46"/>
       <c r="S19" s="46"/>
       <c r="T19" s="46"/>
@@ -2508,7 +2561,7 @@
       </c>
       <c r="F20" s="44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>20</v>
@@ -2537,8 +2590,12 @@
       <c r="O20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
+      <c r="P20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R20" s="46"/>
       <c r="S20" s="46"/>
       <c r="T20" s="46"/>
@@ -2570,7 +2627,7 @@
       </c>
       <c r="F21" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="49" t="s">
         <v>20</v>
@@ -2599,8 +2656,12 @@
       <c r="O21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
+      <c r="P21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R21" s="46"/>
       <c r="S21" s="46"/>
       <c r="T21" s="46"/>
@@ -2632,7 +2693,7 @@
       </c>
       <c r="F22" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="49" t="s">
         <v>20</v>
@@ -2661,8 +2722,12 @@
       <c r="O22" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
+      <c r="P22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R22" s="46"/>
       <c r="S22" s="46"/>
       <c r="T22" s="46"/>
@@ -2694,7 +2759,7 @@
       </c>
       <c r="F23" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G23" s="49" t="s">
         <v>20</v>
@@ -2723,8 +2788,12 @@
       <c r="O23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
+      <c r="P23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R23" s="46"/>
       <c r="S23" s="46"/>
       <c r="T23" s="46"/>
@@ -2756,7 +2825,7 @@
       </c>
       <c r="F24" s="44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>20</v>
@@ -2785,8 +2854,12 @@
       <c r="O24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
+      <c r="P24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R24" s="46"/>
       <c r="S24" s="46"/>
       <c r="T24" s="46"/>
@@ -2818,7 +2891,7 @@
       </c>
       <c r="F25" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>20</v>
@@ -2847,8 +2920,12 @@
       <c r="O25" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
+      <c r="P25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R25" s="46"/>
       <c r="S25" s="46"/>
       <c r="T25" s="46"/>
@@ -2880,7 +2957,7 @@
       </c>
       <c r="F26" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="49" t="s">
         <v>20</v>
@@ -2909,8 +2986,12 @@
       <c r="O26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
+      <c r="P26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R26" s="46"/>
       <c r="S26" s="46"/>
       <c r="T26" s="46"/>
@@ -2938,11 +3019,11 @@
       </c>
       <c r="E27" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="49" t="s">
         <v>20</v>
@@ -2971,8 +3052,12 @@
       <c r="O27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
+      <c r="P27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R27" s="46"/>
       <c r="S27" s="46"/>
       <c r="T27" s="46"/>
@@ -3004,7 +3089,7 @@
       </c>
       <c r="F28" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" s="49" t="s">
         <v>20</v>
@@ -3033,8 +3118,12 @@
       <c r="O28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
+      <c r="P28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R28" s="46"/>
       <c r="S28" s="46"/>
       <c r="T28" s="46"/>
@@ -3062,11 +3151,11 @@
       </c>
       <c r="E29" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" s="49" t="s">
         <v>20</v>
@@ -3095,8 +3184,12 @@
       <c r="O29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
+      <c r="P29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R29" s="46"/>
       <c r="S29" s="46"/>
       <c r="T29" s="46"/>
@@ -3124,11 +3217,11 @@
       </c>
       <c r="E30" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" s="49" t="s">
         <v>20</v>
@@ -3157,8 +3250,12 @@
       <c r="O30" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
+      <c r="P30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="R30" s="46"/>
       <c r="S30" s="46"/>
       <c r="T30" s="46"/>
@@ -3186,7 +3283,7 @@
       </c>
       <c r="E31" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31" s="44">
         <f t="shared" si="2"/>
@@ -3219,8 +3316,12 @@
       <c r="O31" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
+      <c r="P31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="R31" s="46"/>
       <c r="S31" s="46"/>
       <c r="T31" s="46"/>
@@ -3252,7 +3353,7 @@
       </c>
       <c r="F32" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="49" t="s">
         <v>20</v>
@@ -3281,8 +3382,12 @@
       <c r="O32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
+      <c r="P32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
       <c r="T32" s="46"/>
@@ -3314,7 +3419,7 @@
       </c>
       <c r="F33" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="48" t="s">
         <v>21</v>
@@ -3343,8 +3448,12 @@
       <c r="O33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
+      <c r="P33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R33" s="46"/>
       <c r="S33" s="46"/>
       <c r="T33" s="46"/>
@@ -3372,11 +3481,11 @@
       </c>
       <c r="E34" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" s="49" t="s">
         <v>20</v>
@@ -3405,8 +3514,12 @@
       <c r="O34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
+      <c r="P34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R34" s="46"/>
       <c r="S34" s="46"/>
       <c r="T34" s="46"/>
@@ -3438,7 +3551,7 @@
       </c>
       <c r="F35" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="49" t="s">
         <v>20</v>
@@ -3467,8 +3580,12 @@
       <c r="O35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
+      <c r="P35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R35" s="46"/>
       <c r="S35" s="46"/>
       <c r="T35" s="46"/>
@@ -3500,7 +3617,7 @@
       </c>
       <c r="F36" s="44">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G36" s="48" t="s">
         <v>21</v>
@@ -3529,8 +3646,12 @@
       <c r="O36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
+      <c r="P36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R36" s="46"/>
       <c r="S36" s="46"/>
       <c r="T36" s="46"/>
@@ -3562,7 +3683,7 @@
       </c>
       <c r="F37" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G37" s="49" t="s">
         <v>20</v>
@@ -3591,8 +3712,12 @@
       <c r="O37" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
+      <c r="P37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R37" s="46"/>
       <c r="S37" s="46"/>
       <c r="T37" s="46"/>
@@ -3624,7 +3749,7 @@
       </c>
       <c r="F38" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="49" t="s">
         <v>20</v>
@@ -3653,8 +3778,12 @@
       <c r="O38" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
+      <c r="P38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R38" s="46"/>
       <c r="S38" s="46"/>
       <c r="T38" s="46"/>
@@ -3686,7 +3815,7 @@
       </c>
       <c r="F39" s="44">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="49" t="s">
         <v>20</v>
@@ -3715,8 +3844,12 @@
       <c r="O39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
+      <c r="P39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R39" s="46"/>
       <c r="S39" s="46"/>
       <c r="T39" s="46"/>
@@ -3744,11 +3877,11 @@
       </c>
       <c r="E40" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="49" t="s">
         <v>20</v>
@@ -3777,8 +3910,12 @@
       <c r="O40" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
+      <c r="P40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R40" s="46"/>
       <c r="S40" s="46"/>
       <c r="T40" s="46"/>
@@ -3810,7 +3947,7 @@
       </c>
       <c r="F41" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G41" s="49" t="s">
         <v>20</v>
@@ -3839,8 +3976,12 @@
       <c r="O41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
+      <c r="P41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R41" s="46"/>
       <c r="S41" s="46"/>
       <c r="T41" s="46"/>
@@ -3872,7 +4013,7 @@
       </c>
       <c r="F42" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="49" t="s">
         <v>20</v>
@@ -3901,8 +4042,12 @@
       <c r="O42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
+      <c r="P42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R42" s="46"/>
       <c r="S42" s="46"/>
       <c r="T42" s="46"/>
@@ -3934,7 +4079,7 @@
       </c>
       <c r="F43" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="49" t="s">
         <v>20</v>
@@ -3963,8 +4108,12 @@
       <c r="O43" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
+      <c r="P43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R43" s="46"/>
       <c r="S43" s="46"/>
       <c r="T43" s="46"/>
@@ -3996,7 +4145,7 @@
       </c>
       <c r="F44" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="49" t="s">
         <v>20</v>
@@ -4025,8 +4174,12 @@
       <c r="O44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
+      <c r="P44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R44" s="46"/>
       <c r="S44" s="46"/>
       <c r="T44" s="46"/>
@@ -4058,7 +4211,7 @@
       </c>
       <c r="F45" s="44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G45" s="49" t="s">
         <v>20</v>
@@ -4087,8 +4240,12 @@
       <c r="O45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
+      <c r="P45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R45" s="46"/>
       <c r="S45" s="46"/>
       <c r="T45" s="46"/>
@@ -4116,11 +4273,11 @@
       </c>
       <c r="E46" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" s="48" t="s">
         <v>21</v>
@@ -4149,8 +4306,12 @@
       <c r="O46" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
+      <c r="P46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R46" s="46"/>
       <c r="S46" s="46"/>
       <c r="T46" s="46"/>
@@ -4182,7 +4343,7 @@
       </c>
       <c r="F47" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47" s="49" t="s">
         <v>20</v>
@@ -4211,8 +4372,12 @@
       <c r="O47" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
+      <c r="P47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R47" s="46"/>
       <c r="S47" s="46"/>
       <c r="T47" s="46"/>
@@ -4240,7 +4405,7 @@
       </c>
       <c r="E48" s="33">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F48" s="44">
         <f t="shared" si="2"/>
@@ -4273,8 +4438,12 @@
       <c r="O48" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
+      <c r="P48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="R48" s="46"/>
       <c r="S48" s="46"/>
       <c r="T48" s="46"/>
@@ -4306,7 +4475,7 @@
       </c>
       <c r="F49" s="44">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" s="48" t="s">
         <v>21</v>
@@ -4335,8 +4504,12 @@
       <c r="O49" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
+      <c r="P49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R49" s="46"/>
       <c r="S49" s="46"/>
       <c r="T49" s="46"/>
@@ -4368,7 +4541,7 @@
       </c>
       <c r="F50" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="49" t="s">
         <v>20</v>
@@ -4397,8 +4570,12 @@
       <c r="O50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
+      <c r="P50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R50" s="46"/>
       <c r="S50" s="46"/>
       <c r="T50" s="46"/>
@@ -4430,7 +4607,7 @@
       </c>
       <c r="F51" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="49" t="s">
         <v>20</v>
@@ -4459,8 +4636,12 @@
       <c r="O51" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
+      <c r="P51" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R51" s="46"/>
       <c r="S51" s="46"/>
       <c r="T51" s="46"/>
@@ -4492,7 +4673,7 @@
       </c>
       <c r="F52" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="49" t="s">
         <v>20</v>
@@ -4521,8 +4702,12 @@
       <c r="O52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
+      <c r="P52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R52" s="46"/>
       <c r="S52" s="46"/>
       <c r="T52" s="46"/>
@@ -4554,7 +4739,7 @@
       </c>
       <c r="F53" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53" s="49" t="s">
         <v>20</v>
@@ -4583,8 +4768,12 @@
       <c r="O53" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
+      <c r="P53" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R53" s="46"/>
       <c r="S53" s="46"/>
       <c r="T53" s="46"/>
@@ -4616,7 +4805,7 @@
       </c>
       <c r="F54" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G54" s="49" t="s">
         <v>20</v>
@@ -4645,8 +4834,12 @@
       <c r="O54" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
+      <c r="P54" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R54" s="46"/>
       <c r="S54" s="46"/>
       <c r="T54" s="46"/>
@@ -4678,7 +4871,7 @@
       </c>
       <c r="F55" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" s="49" t="s">
         <v>20</v>
@@ -4707,8 +4900,12 @@
       <c r="O55" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46"/>
+      <c r="P55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R55" s="46"/>
       <c r="S55" s="46"/>
       <c r="T55" s="46"/>
@@ -4740,7 +4937,7 @@
       </c>
       <c r="F56" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="49" t="s">
         <v>20</v>
@@ -4769,8 +4966,12 @@
       <c r="O56" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
+      <c r="P56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R56" s="46"/>
       <c r="S56" s="46"/>
       <c r="T56" s="46"/>
@@ -4802,7 +5003,7 @@
       </c>
       <c r="F57" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="49" t="s">
         <v>20</v>
@@ -4831,8 +5032,12 @@
       <c r="O57" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
+      <c r="P57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R57" s="46"/>
       <c r="S57" s="46"/>
       <c r="T57" s="46"/>
@@ -4864,7 +5069,7 @@
       </c>
       <c r="F58" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G58" s="49" t="s">
         <v>20</v>
@@ -4893,8 +5098,12 @@
       <c r="O58" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="46"/>
+      <c r="P58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R58" s="46"/>
       <c r="S58" s="46"/>
       <c r="T58" s="46"/>
@@ -4926,7 +5135,7 @@
       </c>
       <c r="F59" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G59" s="49" t="s">
         <v>20</v>
@@ -4955,8 +5164,12 @@
       <c r="O59" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
+      <c r="P59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R59" s="46"/>
       <c r="S59" s="46"/>
       <c r="T59" s="46"/>
@@ -4988,7 +5201,7 @@
       </c>
       <c r="F60" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G60" s="49" t="s">
         <v>20</v>
@@ -5017,8 +5230,12 @@
       <c r="O60" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="46"/>
+      <c r="P60" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R60" s="46"/>
       <c r="S60" s="46"/>
       <c r="T60" s="46"/>
@@ -5046,11 +5263,11 @@
       </c>
       <c r="E61" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F61" s="44">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" s="49" t="s">
         <v>20</v>
@@ -5079,8 +5296,12 @@
       <c r="O61" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
+      <c r="P61" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R61" s="46"/>
       <c r="S61" s="46"/>
       <c r="T61" s="46"/>
@@ -5108,11 +5329,11 @@
       </c>
       <c r="E62" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G62" s="49" t="s">
         <v>20</v>
@@ -5141,8 +5362,12 @@
       <c r="O62" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
+      <c r="P62" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R62" s="46"/>
       <c r="S62" s="46"/>
       <c r="T62" s="46"/>
@@ -5170,11 +5395,11 @@
       </c>
       <c r="E63" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G63" s="49" t="s">
         <v>20</v>
@@ -5203,8 +5428,12 @@
       <c r="O63" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
+      <c r="P63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="46"/>
       <c r="S63" s="46"/>
       <c r="T63" s="46"/>
@@ -5236,7 +5465,7 @@
       </c>
       <c r="F64" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G64" s="49" t="s">
         <v>20</v>
@@ -5265,8 +5494,12 @@
       <c r="O64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
+      <c r="P64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R64" s="46"/>
       <c r="S64" s="46"/>
       <c r="T64" s="46"/>
@@ -5294,11 +5527,11 @@
       </c>
       <c r="E65" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65" s="48" t="s">
         <v>21</v>
@@ -5327,8 +5560,12 @@
       <c r="O65" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="46"/>
+      <c r="P65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R65" s="46"/>
       <c r="S65" s="46"/>
       <c r="T65" s="46"/>
@@ -5356,7 +5593,7 @@
       </c>
       <c r="E66" s="33">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66" s="44">
         <f t="shared" si="2"/>
@@ -5389,8 +5626,12 @@
       <c r="O66" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="46"/>
+      <c r="P66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="R66" s="46"/>
       <c r="S66" s="46"/>
       <c r="T66" s="46"/>
@@ -5422,7 +5663,7 @@
       </c>
       <c r="F67" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G67" s="48" t="s">
         <v>21</v>
@@ -5451,8 +5692,12 @@
       <c r="O67" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="46"/>
+      <c r="P67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R67" s="46"/>
       <c r="S67" s="46"/>
       <c r="T67" s="46"/>
@@ -5484,7 +5729,7 @@
       </c>
       <c r="F68" s="44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G68" s="49" t="s">
         <v>20</v>
@@ -5513,8 +5758,12 @@
       <c r="O68" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="46"/>
+      <c r="P68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R68" s="46"/>
       <c r="S68" s="46"/>
       <c r="T68" s="46"/>
@@ -5546,7 +5795,7 @@
       </c>
       <c r="F69" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G69" s="49" t="s">
         <v>20</v>
@@ -5575,8 +5824,12 @@
       <c r="O69" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
+      <c r="P69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R69" s="46"/>
       <c r="S69" s="46"/>
       <c r="T69" s="46"/>
@@ -5604,11 +5857,11 @@
       </c>
       <c r="E70" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" s="49" t="s">
         <v>20</v>
@@ -5637,8 +5890,12 @@
       <c r="O70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
+      <c r="P70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="R70" s="46"/>
       <c r="S70" s="46"/>
       <c r="T70" s="46"/>
@@ -5670,7 +5927,7 @@
       </c>
       <c r="F71" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G71" s="49" t="s">
         <v>20</v>
@@ -5699,8 +5956,12 @@
       <c r="O71" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
+      <c r="P71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R71" s="46"/>
       <c r="S71" s="46"/>
       <c r="T71" s="46"/>
@@ -5732,7 +5993,7 @@
       </c>
       <c r="F72" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G72" s="48" t="s">
         <v>21</v>
@@ -5761,8 +6022,12 @@
       <c r="O72" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="46"/>
+      <c r="P72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R72" s="46"/>
       <c r="S72" s="46"/>
       <c r="T72" s="46"/>
@@ -5794,7 +6059,7 @@
       </c>
       <c r="F73" s="44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G73" s="49" t="s">
         <v>20</v>
@@ -5823,8 +6088,12 @@
       <c r="O73" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
+      <c r="P73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R73" s="46"/>
       <c r="S73" s="46"/>
       <c r="T73" s="46"/>
@@ -5852,11 +6121,11 @@
       </c>
       <c r="E74" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G74" s="49" t="s">
         <v>20</v>
@@ -5885,8 +6154,12 @@
       <c r="O74" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
+      <c r="P74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R74" s="46"/>
       <c r="S74" s="46"/>
       <c r="T74" s="46"/>
@@ -5918,7 +6191,7 @@
       </c>
       <c r="F75" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75" s="48" t="s">
         <v>21</v>
@@ -5947,8 +6220,12 @@
       <c r="O75" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
+      <c r="P75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q75" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R75" s="46"/>
       <c r="S75" s="46"/>
       <c r="T75" s="46"/>
@@ -5980,7 +6257,7 @@
       </c>
       <c r="F76" s="44">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="49" t="s">
         <v>20</v>
@@ -6009,8 +6286,12 @@
       <c r="O76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
+      <c r="P76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R76" s="46"/>
       <c r="S76" s="46"/>
       <c r="T76" s="46"/>
@@ -6042,7 +6323,7 @@
       </c>
       <c r="F77" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" s="49" t="s">
         <v>20</v>
@@ -6071,8 +6352,12 @@
       <c r="O77" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="46"/>
+      <c r="P77" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R77" s="46"/>
       <c r="S77" s="46"/>
       <c r="T77" s="46"/>
@@ -6104,7 +6389,7 @@
       </c>
       <c r="F78" s="44">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G78" s="48" t="s">
         <v>21</v>
@@ -6133,8 +6418,12 @@
       <c r="O78" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
+      <c r="P78" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q78" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="R78" s="46"/>
       <c r="S78" s="46"/>
       <c r="T78" s="46"/>

--- a/attendance-files/SCM/SCM-H Attendance Sheet.xlsx
+++ b/attendance-files/SCM/SCM-H Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>20</v>
@@ -1768,7 +1768,9 @@
       <c r="U7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="41"/>
+      <c r="V7" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W7" s="41"/>
       <c r="X7" s="41"/>
       <c r="Y7" s="41"/>
@@ -1795,7 +1797,7 @@
       </c>
       <c r="F8" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1842,7 +1844,9 @@
       <c r="U8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="46"/>
+      <c r="V8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
       <c r="Y8" s="46"/>
@@ -1865,7 +1869,7 @@
       </c>
       <c r="E9" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="45">
         <f t="shared" si="2"/>
@@ -1916,7 +1920,9 @@
       <c r="U9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="46"/>
+      <c r="V9" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W9" s="46"/>
       <c r="X9" s="46"/>
       <c r="Y9" s="46"/>
@@ -1943,7 +1949,7 @@
       </c>
       <c r="F10" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
@@ -1990,7 +1996,9 @@
       <c r="U10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="46"/>
+      <c r="V10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
       <c r="Y10" s="46"/>
@@ -2017,7 +2025,7 @@
       </c>
       <c r="F11" s="45">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -2064,7 +2072,9 @@
       <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="46"/>
+      <c r="V11" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W11" s="46"/>
       <c r="X11" s="46"/>
       <c r="Y11" s="46"/>
@@ -2087,7 +2097,7 @@
       </c>
       <c r="E12" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="45">
         <f t="shared" si="2"/>
@@ -2138,7 +2148,9 @@
       <c r="U12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="46"/>
+      <c r="V12" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W12" s="46"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="46"/>
@@ -2165,7 +2177,7 @@
       </c>
       <c r="F13" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="49" t="s">
         <v>20</v>
@@ -2212,7 +2224,9 @@
       <c r="U13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="46"/>
+      <c r="V13" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W13" s="46"/>
       <c r="X13" s="46"/>
       <c r="Y13" s="46"/>
@@ -2239,7 +2253,7 @@
       </c>
       <c r="F14" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>20</v>
@@ -2286,7 +2300,9 @@
       <c r="U14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="46"/>
+      <c r="V14" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W14" s="46"/>
       <c r="X14" s="46"/>
       <c r="Y14" s="46"/>
@@ -2313,7 +2329,7 @@
       </c>
       <c r="F15" s="45">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="48" t="s">
         <v>21</v>
@@ -2360,7 +2376,9 @@
       <c r="U15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="46"/>
+      <c r="V15" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="46"/>
@@ -2387,7 +2405,7 @@
       </c>
       <c r="F16" s="45">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>21</v>
@@ -2434,7 +2452,9 @@
       <c r="U16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V16" s="46"/>
+      <c r="V16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W16" s="46"/>
       <c r="X16" s="46"/>
       <c r="Y16" s="46"/>
@@ -2457,7 +2477,7 @@
       </c>
       <c r="E17" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="45">
         <f t="shared" si="2"/>
@@ -2508,7 +2528,9 @@
       <c r="U17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="46"/>
+      <c r="V17" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W17" s="46"/>
       <c r="X17" s="46"/>
       <c r="Y17" s="46"/>
@@ -2535,7 +2557,7 @@
       </c>
       <c r="F18" s="45">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>21</v>
@@ -2582,7 +2604,9 @@
       <c r="U18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V18" s="46"/>
+      <c r="V18" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W18" s="46"/>
       <c r="X18" s="46"/>
       <c r="Y18" s="46"/>
@@ -2609,7 +2633,7 @@
       </c>
       <c r="F19" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>20</v>
@@ -2656,7 +2680,9 @@
       <c r="U19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V19" s="46"/>
+      <c r="V19" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W19" s="46"/>
       <c r="X19" s="46"/>
       <c r="Y19" s="46"/>
@@ -2683,7 +2709,7 @@
       </c>
       <c r="F20" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>20</v>
@@ -2730,7 +2756,9 @@
       <c r="U20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V20" s="46"/>
+      <c r="V20" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W20" s="46"/>
       <c r="X20" s="46"/>
       <c r="Y20" s="46"/>
@@ -2753,7 +2781,7 @@
       </c>
       <c r="E21" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="45">
         <f t="shared" si="2"/>
@@ -2804,7 +2832,9 @@
       <c r="U21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="46"/>
+      <c r="V21" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W21" s="46"/>
       <c r="X21" s="46"/>
       <c r="Y21" s="46"/>
@@ -2827,7 +2857,7 @@
       </c>
       <c r="E22" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="45">
         <f t="shared" si="2"/>
@@ -2878,7 +2908,9 @@
       <c r="U22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="46"/>
+      <c r="V22" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W22" s="46"/>
       <c r="X22" s="46"/>
       <c r="Y22" s="46"/>
@@ -2905,7 +2937,7 @@
       </c>
       <c r="F23" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="49" t="s">
         <v>20</v>
@@ -2952,7 +2984,9 @@
       <c r="U23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V23" s="46"/>
+      <c r="V23" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W23" s="46"/>
       <c r="X23" s="46"/>
       <c r="Y23" s="46"/>
@@ -2979,7 +3013,7 @@
       </c>
       <c r="F24" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>20</v>
@@ -3026,7 +3060,9 @@
       <c r="U24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V24" s="46"/>
+      <c r="V24" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W24" s="46"/>
       <c r="X24" s="46"/>
       <c r="Y24" s="46"/>
@@ -3053,7 +3089,7 @@
       </c>
       <c r="F25" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>20</v>
@@ -3100,7 +3136,9 @@
       <c r="U25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V25" s="46"/>
+      <c r="V25" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W25" s="46"/>
       <c r="X25" s="46"/>
       <c r="Y25" s="46"/>
@@ -3123,7 +3161,7 @@
       </c>
       <c r="E26" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="45">
         <f t="shared" si="2"/>
@@ -3174,7 +3212,9 @@
       <c r="U26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V26" s="46"/>
+      <c r="V26" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W26" s="46"/>
       <c r="X26" s="46"/>
       <c r="Y26" s="46"/>
@@ -3201,7 +3241,7 @@
       </c>
       <c r="F27" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="49" t="s">
         <v>20</v>
@@ -3248,7 +3288,9 @@
       <c r="U27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V27" s="46"/>
+      <c r="V27" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W27" s="46"/>
       <c r="X27" s="46"/>
       <c r="Y27" s="46"/>
@@ -3275,7 +3317,7 @@
       </c>
       <c r="F28" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" s="49" t="s">
         <v>20</v>
@@ -3322,7 +3364,9 @@
       <c r="U28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V28" s="46"/>
+      <c r="V28" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W28" s="46"/>
       <c r="X28" s="46"/>
       <c r="Y28" s="46"/>
@@ -3349,7 +3393,7 @@
       </c>
       <c r="F29" s="45">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="49" t="s">
         <v>20</v>
@@ -3396,7 +3440,9 @@
       <c r="U29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V29" s="46"/>
+      <c r="V29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W29" s="46"/>
       <c r="X29" s="46"/>
       <c r="Y29" s="46"/>
@@ -3419,7 +3465,7 @@
       </c>
       <c r="E30" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="45">
         <f t="shared" si="2"/>
@@ -3470,7 +3516,9 @@
       <c r="U30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V30" s="46"/>
+      <c r="V30" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W30" s="46"/>
       <c r="X30" s="46"/>
       <c r="Y30" s="46"/>
@@ -3497,7 +3545,7 @@
       </c>
       <c r="F31" s="45">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" s="49" t="s">
         <v>20</v>
@@ -3544,7 +3592,9 @@
       <c r="U31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V31" s="46"/>
+      <c r="V31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W31" s="46"/>
       <c r="X31" s="46"/>
       <c r="Y31" s="46"/>
@@ -3571,7 +3621,7 @@
       </c>
       <c r="F32" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" s="49" t="s">
         <v>20</v>
@@ -3618,7 +3668,9 @@
       <c r="U32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="46"/>
+      <c r="V32" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W32" s="46"/>
       <c r="X32" s="46"/>
       <c r="Y32" s="46"/>
@@ -3641,7 +3693,7 @@
       </c>
       <c r="E33" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="45">
         <f t="shared" si="2"/>
@@ -3692,7 +3744,9 @@
       <c r="U33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V33" s="46"/>
+      <c r="V33" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W33" s="46"/>
       <c r="X33" s="46"/>
       <c r="Y33" s="46"/>
@@ -3719,7 +3773,7 @@
       </c>
       <c r="F34" s="45">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" s="49" t="s">
         <v>20</v>
@@ -3766,7 +3820,9 @@
       <c r="U34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V34" s="46"/>
+      <c r="V34" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W34" s="46"/>
       <c r="X34" s="46"/>
       <c r="Y34" s="46"/>
@@ -3789,7 +3845,7 @@
       </c>
       <c r="E35" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="45">
         <f t="shared" si="2"/>
@@ -3840,7 +3896,9 @@
       <c r="U35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V35" s="46"/>
+      <c r="V35" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W35" s="46"/>
       <c r="X35" s="46"/>
       <c r="Y35" s="46"/>
@@ -3867,7 +3925,7 @@
       </c>
       <c r="F36" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="48" t="s">
         <v>21</v>
@@ -3914,7 +3972,9 @@
       <c r="U36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V36" s="46"/>
+      <c r="V36" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W36" s="46"/>
       <c r="X36" s="46"/>
       <c r="Y36" s="46"/>
@@ -3941,7 +4001,7 @@
       </c>
       <c r="F37" s="45">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G37" s="49" t="s">
         <v>20</v>
@@ -3988,7 +4048,9 @@
       <c r="U37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V37" s="46"/>
+      <c r="V37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W37" s="46"/>
       <c r="X37" s="46"/>
       <c r="Y37" s="46"/>
@@ -4015,7 +4077,7 @@
       </c>
       <c r="F38" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="49" t="s">
         <v>20</v>
@@ -4062,7 +4124,9 @@
       <c r="U38" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V38" s="46"/>
+      <c r="V38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W38" s="46"/>
       <c r="X38" s="46"/>
       <c r="Y38" s="46"/>
@@ -4089,7 +4153,7 @@
       </c>
       <c r="F39" s="45">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" s="49" t="s">
         <v>20</v>
@@ -4136,7 +4200,9 @@
       <c r="U39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V39" s="46"/>
+      <c r="V39" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W39" s="46"/>
       <c r="X39" s="46"/>
       <c r="Y39" s="46"/>
@@ -4163,7 +4229,7 @@
       </c>
       <c r="F40" s="45">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" s="49" t="s">
         <v>20</v>
@@ -4210,7 +4276,9 @@
       <c r="U40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V40" s="46"/>
+      <c r="V40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W40" s="46"/>
       <c r="X40" s="46"/>
       <c r="Y40" s="46"/>
@@ -4237,7 +4305,7 @@
       </c>
       <c r="F41" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="49" t="s">
         <v>20</v>
@@ -4284,7 +4352,9 @@
       <c r="U41" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V41" s="46"/>
+      <c r="V41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W41" s="46"/>
       <c r="X41" s="46"/>
       <c r="Y41" s="46"/>
@@ -4311,7 +4381,7 @@
       </c>
       <c r="F42" s="45">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="49" t="s">
         <v>20</v>
@@ -4358,7 +4428,9 @@
       <c r="U42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V42" s="46"/>
+      <c r="V42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="46"/>
@@ -4381,7 +4453,7 @@
       </c>
       <c r="E43" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="45">
         <f t="shared" si="2"/>
@@ -4432,7 +4504,9 @@
       <c r="U43" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V43" s="46"/>
+      <c r="V43" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W43" s="46"/>
       <c r="X43" s="46"/>
       <c r="Y43" s="46"/>
@@ -4455,7 +4529,7 @@
       </c>
       <c r="E44" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="45">
         <f t="shared" si="2"/>
@@ -4506,7 +4580,9 @@
       <c r="U44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V44" s="46"/>
+      <c r="V44" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W44" s="46"/>
       <c r="X44" s="46"/>
       <c r="Y44" s="46"/>
@@ -4533,7 +4609,7 @@
       </c>
       <c r="F45" s="45">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G45" s="49" t="s">
         <v>20</v>
@@ -4580,7 +4656,9 @@
       <c r="U45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V45" s="46"/>
+      <c r="V45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W45" s="46"/>
       <c r="X45" s="46"/>
       <c r="Y45" s="46"/>
@@ -4603,7 +4681,7 @@
       </c>
       <c r="E46" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" s="45">
         <f t="shared" si="2"/>
@@ -4654,7 +4732,9 @@
       <c r="U46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V46" s="46"/>
+      <c r="V46" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W46" s="46"/>
       <c r="X46" s="46"/>
       <c r="Y46" s="46"/>
@@ -4681,7 +4761,7 @@
       </c>
       <c r="F47" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="49" t="s">
         <v>20</v>
@@ -4728,7 +4808,9 @@
       <c r="U47" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="46"/>
+      <c r="V47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W47" s="46"/>
       <c r="X47" s="46"/>
       <c r="Y47" s="46"/>
@@ -4751,7 +4833,7 @@
       </c>
       <c r="E48" s="33">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" s="45">
         <f t="shared" si="2"/>
@@ -4802,7 +4884,9 @@
       <c r="U48" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="46"/>
+      <c r="V48" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W48" s="46"/>
       <c r="X48" s="46"/>
       <c r="Y48" s="46"/>
@@ -4825,7 +4909,7 @@
       </c>
       <c r="E49" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="45">
         <f t="shared" si="2"/>
@@ -4876,7 +4960,9 @@
       <c r="U49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V49" s="46"/>
+      <c r="V49" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W49" s="46"/>
       <c r="X49" s="46"/>
       <c r="Y49" s="46"/>
@@ -4903,7 +4989,7 @@
       </c>
       <c r="F50" s="45">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50" s="49" t="s">
         <v>20</v>
@@ -4950,7 +5036,9 @@
       <c r="U50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V50" s="46"/>
+      <c r="V50" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W50" s="46"/>
       <c r="X50" s="46"/>
       <c r="Y50" s="46"/>
@@ -4977,7 +5065,7 @@
       </c>
       <c r="F51" s="45">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" s="49" t="s">
         <v>20</v>
@@ -5024,7 +5112,9 @@
       <c r="U51" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V51" s="46"/>
+      <c r="V51" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W51" s="46"/>
       <c r="X51" s="46"/>
       <c r="Y51" s="46"/>
@@ -5047,7 +5137,7 @@
       </c>
       <c r="E52" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="45">
         <f t="shared" si="2"/>
@@ -5098,7 +5188,9 @@
       <c r="U52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V52" s="46"/>
+      <c r="V52" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W52" s="46"/>
       <c r="X52" s="46"/>
       <c r="Y52" s="46"/>
@@ -5121,7 +5213,7 @@
       </c>
       <c r="E53" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="45">
         <f t="shared" si="2"/>
@@ -5172,7 +5264,9 @@
       <c r="U53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V53" s="46"/>
+      <c r="V53" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W53" s="46"/>
       <c r="X53" s="46"/>
       <c r="Y53" s="46"/>
@@ -5199,7 +5293,7 @@
       </c>
       <c r="F54" s="45">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" s="49" t="s">
         <v>20</v>
@@ -5246,7 +5340,9 @@
       <c r="U54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V54" s="46"/>
+      <c r="V54" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W54" s="46"/>
       <c r="X54" s="46"/>
       <c r="Y54" s="46"/>
@@ -5269,7 +5365,7 @@
       </c>
       <c r="E55" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="45">
         <f t="shared" si="2"/>
@@ -5320,7 +5416,9 @@
       <c r="U55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V55" s="46"/>
+      <c r="V55" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W55" s="46"/>
       <c r="X55" s="46"/>
       <c r="Y55" s="46"/>
@@ -5343,7 +5441,7 @@
       </c>
       <c r="E56" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="45">
         <f t="shared" si="2"/>
@@ -5394,7 +5492,9 @@
       <c r="U56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V56" s="46"/>
+      <c r="V56" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W56" s="46"/>
       <c r="X56" s="46"/>
       <c r="Y56" s="46"/>
@@ -5421,7 +5521,7 @@
       </c>
       <c r="F57" s="45">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" s="49" t="s">
         <v>20</v>
@@ -5468,7 +5568,9 @@
       <c r="U57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V57" s="46"/>
+      <c r="V57" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W57" s="46"/>
       <c r="X57" s="46"/>
       <c r="Y57" s="46"/>
@@ -5495,7 +5597,7 @@
       </c>
       <c r="F58" s="45">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="49" t="s">
         <v>20</v>
@@ -5542,7 +5644,9 @@
       <c r="U58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V58" s="46"/>
+      <c r="V58" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W58" s="46"/>
       <c r="X58" s="46"/>
       <c r="Y58" s="46"/>
@@ -5569,7 +5673,7 @@
       </c>
       <c r="F59" s="45">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" s="49" t="s">
         <v>20</v>
@@ -5616,7 +5720,9 @@
       <c r="U59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V59" s="46"/>
+      <c r="V59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W59" s="46"/>
       <c r="X59" s="46"/>
       <c r="Y59" s="46"/>
@@ -5643,7 +5749,7 @@
       </c>
       <c r="F60" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" s="49" t="s">
         <v>20</v>
@@ -5690,7 +5796,9 @@
       <c r="U60" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V60" s="46"/>
+      <c r="V60" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W60" s="46"/>
       <c r="X60" s="46"/>
       <c r="Y60" s="46"/>
@@ -5717,7 +5825,7 @@
       </c>
       <c r="F61" s="45">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G61" s="49" t="s">
         <v>20</v>
@@ -5764,7 +5872,9 @@
       <c r="U61" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="46"/>
+      <c r="V61" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W61" s="46"/>
       <c r="X61" s="46"/>
       <c r="Y61" s="46"/>
@@ -5791,7 +5901,7 @@
       </c>
       <c r="F62" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G62" s="49" t="s">
         <v>20</v>
@@ -5838,7 +5948,9 @@
       <c r="U62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V62" s="46"/>
+      <c r="V62" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W62" s="46"/>
       <c r="X62" s="46"/>
       <c r="Y62" s="46"/>
@@ -5865,7 +5977,7 @@
       </c>
       <c r="F63" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" s="49" t="s">
         <v>20</v>
@@ -5912,7 +6024,9 @@
       <c r="U63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V63" s="46"/>
+      <c r="V63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W63" s="46"/>
       <c r="X63" s="46"/>
       <c r="Y63" s="46"/>
@@ -5939,7 +6053,7 @@
       </c>
       <c r="F64" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" s="49" t="s">
         <v>20</v>
@@ -5986,7 +6100,9 @@
       <c r="U64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V64" s="46"/>
+      <c r="V64" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W64" s="46"/>
       <c r="X64" s="46"/>
       <c r="Y64" s="46"/>
@@ -6013,7 +6129,7 @@
       </c>
       <c r="F65" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" s="48" t="s">
         <v>21</v>
@@ -6060,7 +6176,9 @@
       <c r="U65" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V65" s="46"/>
+      <c r="V65" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="46"/>
@@ -6083,7 +6201,7 @@
       </c>
       <c r="E66" s="33">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" s="45">
         <f t="shared" si="2"/>
@@ -6134,7 +6252,9 @@
       <c r="U66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V66" s="46"/>
+      <c r="V66" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W66" s="46"/>
       <c r="X66" s="46"/>
       <c r="Y66" s="46"/>
@@ -6157,7 +6277,7 @@
       </c>
       <c r="E67" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="45">
         <f t="shared" si="2"/>
@@ -6208,7 +6328,9 @@
       <c r="U67" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V67" s="46"/>
+      <c r="V67" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W67" s="46"/>
       <c r="X67" s="46"/>
       <c r="Y67" s="46"/>
@@ -6231,7 +6353,7 @@
       </c>
       <c r="E68" s="33">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F68" s="45">
         <f t="shared" si="2"/>
@@ -6282,7 +6404,9 @@
       <c r="U68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V68" s="46"/>
+      <c r="V68" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W68" s="46"/>
       <c r="X68" s="46"/>
       <c r="Y68" s="46"/>
@@ -6309,7 +6433,7 @@
       </c>
       <c r="F69" s="45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="49" t="s">
         <v>20</v>
@@ -6356,7 +6480,9 @@
       <c r="U69" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V69" s="46"/>
+      <c r="V69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W69" s="46"/>
       <c r="X69" s="46"/>
       <c r="Y69" s="46"/>
@@ -6379,7 +6505,7 @@
       </c>
       <c r="E70" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="45">
         <f t="shared" si="2"/>
@@ -6430,7 +6556,9 @@
       <c r="U70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V70" s="46"/>
+      <c r="V70" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W70" s="46"/>
       <c r="X70" s="46"/>
       <c r="Y70" s="46"/>
@@ -6457,7 +6585,7 @@
       </c>
       <c r="F71" s="45">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" s="49" t="s">
         <v>20</v>
@@ -6504,7 +6632,9 @@
       <c r="U71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V71" s="46"/>
+      <c r="V71" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W71" s="46"/>
       <c r="X71" s="46"/>
       <c r="Y71" s="46"/>
@@ -6527,7 +6657,7 @@
       </c>
       <c r="E72" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="45">
         <f t="shared" si="2"/>
@@ -6578,7 +6708,9 @@
       <c r="U72" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V72" s="46"/>
+      <c r="V72" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W72" s="46"/>
       <c r="X72" s="46"/>
       <c r="Y72" s="46"/>
@@ -6605,7 +6737,7 @@
       </c>
       <c r="F73" s="45">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G73" s="49" t="s">
         <v>20</v>
@@ -6652,7 +6784,9 @@
       <c r="U73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V73" s="46"/>
+      <c r="V73" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W73" s="46"/>
       <c r="X73" s="46"/>
       <c r="Y73" s="46"/>
@@ -6675,7 +6809,7 @@
       </c>
       <c r="E74" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="45">
         <f t="shared" si="2"/>
@@ -6726,7 +6860,9 @@
       <c r="U74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V74" s="46"/>
+      <c r="V74" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W74" s="46"/>
       <c r="X74" s="46"/>
       <c r="Y74" s="46"/>
@@ -6753,7 +6889,7 @@
       </c>
       <c r="F75" s="45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" s="48" t="s">
         <v>21</v>
@@ -6800,7 +6936,9 @@
       <c r="U75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V75" s="46"/>
+      <c r="V75" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W75" s="46"/>
       <c r="X75" s="46"/>
       <c r="Y75" s="46"/>
@@ -6827,7 +6965,7 @@
       </c>
       <c r="F76" s="45">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G76" s="49" t="s">
         <v>20</v>
@@ -6874,7 +7012,9 @@
       <c r="U76" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V76" s="46"/>
+      <c r="V76" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W76" s="46"/>
       <c r="X76" s="46"/>
       <c r="Y76" s="46"/>
@@ -6897,7 +7037,7 @@
       </c>
       <c r="E77" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="45">
         <f t="shared" si="2"/>
@@ -6948,7 +7088,9 @@
       <c r="U77" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V77" s="46"/>
+      <c r="V77" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W77" s="46"/>
       <c r="X77" s="46"/>
       <c r="Y77" s="46"/>
@@ -6971,7 +7113,7 @@
       </c>
       <c r="E78" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="45">
         <f t="shared" si="2"/>
@@ -7022,7 +7164,9 @@
       <c r="U78" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V78" s="46"/>
+      <c r="V78" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="W78" s="46"/>
       <c r="X78" s="46"/>
       <c r="Y78" s="46"/>
